--- a/data_year/zb/工业/按登记注册类型分规模以上工业企业经济指标/应付账款.xlsx
+++ b/data_year/zb/工业/按登记注册类型分规模以上工业企业经济指标/应付账款.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1966 +623,1168 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6147.47711</v>
+        <v>22215.57713</v>
       </c>
       <c r="C2" t="n">
-        <v>151.48926</v>
+        <v>309.48267</v>
       </c>
       <c r="D2" t="n">
-        <v>1923.69886</v>
+        <v>7208.84433</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>17.4246</v>
+        <v>186.90239</v>
       </c>
       <c r="G2" t="n">
-        <v>2177.78993</v>
+        <v>13504.98753</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>14.71058</v>
+        <v>8.490740000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>10885.00585</v>
+        <v>45043.65506</v>
       </c>
       <c r="K2" t="n">
-        <v>224.40882</v>
+        <v>232.39527</v>
       </c>
       <c r="L2" t="n">
-        <v>957.59495</v>
+        <v>2652.94174</v>
       </c>
       <c r="M2" t="n">
-        <v>39.22997</v>
+        <v>22.72535</v>
       </c>
       <c r="N2" t="n">
-        <v>2970.5314</v>
+        <v>7757.10165</v>
       </c>
       <c r="O2" t="n">
-        <v>1169.74591</v>
+        <v>3919.81697</v>
       </c>
       <c r="P2" t="n">
-        <v>33.92946</v>
+        <v>75.89096000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>4224.89493</v>
+        <v>17479.43147</v>
       </c>
       <c r="R2" t="n">
-        <v>112.79152</v>
+        <v>592.39747</v>
       </c>
       <c r="S2" t="n">
-        <v>2036.91529</v>
+        <v>9368.707</v>
       </c>
       <c r="T2" t="n">
-        <v>6425.45139</v>
+        <v>30807.27142</v>
       </c>
       <c r="U2" t="n">
-        <v>5275.51934</v>
+        <v>18353.14629</v>
       </c>
       <c r="V2" t="n">
-        <v>17848.44784</v>
+        <v>71375.99484</v>
       </c>
       <c r="W2" t="n">
-        <v>3347.53584</v>
+        <v>17424.8045</v>
       </c>
       <c r="X2" t="n">
-        <v>2738.54706</v>
+        <v>8852.908310000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.72358</v>
+        <v>404.61943</v>
       </c>
       <c r="Z2" t="n">
-        <v>1462.81971</v>
+        <v>5562.95187</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.10169</v>
+        <v>221.4854</v>
       </c>
       <c r="AB2" t="n">
-        <v>1725.3871</v>
+        <v>11932.92164</v>
       </c>
       <c r="AC2" t="n">
-        <v>1217.45331</v>
+        <v>9513.436830000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>340.44733</v>
+        <v>1329.57877</v>
       </c>
       <c r="AE2" t="n">
-        <v>101.38477</v>
+        <v>868.42064</v>
       </c>
       <c r="AF2" t="n">
-        <v>103.91706</v>
+        <v>121.30976</v>
       </c>
       <c r="AG2" t="n">
-        <v>289.43695</v>
+        <v>248.16776</v>
       </c>
       <c r="AH2" t="n">
-        <v>1692.52664</v>
+        <v>6730.72882</v>
       </c>
       <c r="AI2" t="n">
-        <v>5535.90586</v>
+        <v>15572.16134</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12312.54198</v>
+        <v>55803.8335</v>
       </c>
       <c r="AK2" t="n">
-        <v>738.24626</v>
+        <v>641.71854</v>
       </c>
       <c r="AL2" t="n">
-        <v>16.04705</v>
+        <v>14.20271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8455.629999999999</v>
+        <v>19031.74577</v>
       </c>
       <c r="C3" t="n">
-        <v>222.98</v>
+        <v>317.66437</v>
       </c>
       <c r="D3" t="n">
-        <v>2593</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>7567.15923</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.61081</v>
+      </c>
       <c r="F3" t="n">
-        <v>13.21</v>
+        <v>793.43735</v>
       </c>
       <c r="G3" t="n">
-        <v>3875.35</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>16247.08957</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.447570000000001</v>
+      </c>
       <c r="I3" t="n">
-        <v>14.27</v>
+        <v>20.98719</v>
       </c>
       <c r="J3" t="n">
-        <v>14826.44</v>
+        <v>52593.58342</v>
       </c>
       <c r="K3" t="n">
-        <v>221.6</v>
+        <v>170.27274</v>
       </c>
       <c r="L3" t="n">
-        <v>1221.11</v>
+        <v>3147.3182</v>
       </c>
       <c r="M3" t="n">
-        <v>19.78</v>
+        <v>19.77447</v>
       </c>
       <c r="N3" t="n">
-        <v>3100.89</v>
+        <v>8954.697469999999</v>
       </c>
       <c r="O3" t="n">
-        <v>1382.04</v>
+        <v>4240.46787</v>
       </c>
       <c r="P3" t="n">
-        <v>48.82</v>
+        <v>81.56325</v>
       </c>
       <c r="Q3" t="n">
-        <v>6764.87</v>
+        <v>18607.83927</v>
       </c>
       <c r="R3" t="n">
-        <v>164.6</v>
+        <v>599.34512</v>
       </c>
       <c r="S3" t="n">
-        <v>3784.29</v>
+        <v>10108.05974</v>
       </c>
       <c r="T3" t="n">
-        <v>8590.43</v>
+        <v>44007.96956</v>
       </c>
       <c r="U3" t="n">
-        <v>8374.27</v>
+        <v>18351.97092</v>
       </c>
       <c r="V3" t="n">
-        <v>25420.32</v>
+        <v>81391.68625</v>
       </c>
       <c r="W3" t="n">
-        <v>5257.39</v>
+        <v>20487.55744</v>
       </c>
       <c r="X3" t="n">
-        <v>3829.02</v>
+        <v>10190.26356</v>
       </c>
       <c r="Y3" t="n">
-        <v>109.28</v>
+        <v>395.45251</v>
       </c>
       <c r="Z3" t="n">
-        <v>2277.03</v>
+        <v>6468.77254</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.92</v>
+        <v>180.16122</v>
       </c>
       <c r="AB3" t="n">
-        <v>3217.5</v>
+        <v>12671.56579</v>
       </c>
       <c r="AC3" t="n">
-        <v>2567.96</v>
+        <v>10356.58472</v>
       </c>
       <c r="AD3" t="n">
-        <v>411.27</v>
+        <v>1160.82779</v>
       </c>
       <c r="AE3" t="n">
-        <v>158.35</v>
+        <v>973.99206</v>
       </c>
       <c r="AF3" t="n">
-        <v>94.18000000000001</v>
+        <v>135.35418</v>
       </c>
       <c r="AG3" t="n">
-        <v>247.87</v>
+        <v>229.4037</v>
       </c>
       <c r="AH3" t="n">
-        <v>2203.83</v>
+        <v>8736.198990000001</v>
       </c>
       <c r="AI3" t="n">
-        <v>7348.46</v>
+        <v>16772.75254</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18071.86</v>
+        <v>64618.93371</v>
       </c>
       <c r="AK3" t="n">
-        <v>691.5599999999999</v>
+        <v>585.3685</v>
       </c>
       <c r="AL3" t="n">
-        <v>11.31</v>
+        <v>13.02927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9683.075129999999</v>
+        <v>20898.45239</v>
       </c>
       <c r="C4" t="n">
-        <v>283.13601</v>
+        <v>337.44899</v>
       </c>
       <c r="D4" t="n">
-        <v>3077.9576</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>7636.85845</v>
+      </c>
+      <c r="E4" t="n">
+        <v>46.19919</v>
+      </c>
       <c r="F4" t="n">
-        <v>61.98904</v>
+        <v>978.81184</v>
       </c>
       <c r="G4" t="n">
-        <v>4655.88049</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>19253.46796</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15.30594</v>
+      </c>
       <c r="I4" t="n">
-        <v>16.63301</v>
+        <v>15.39873</v>
       </c>
       <c r="J4" t="n">
-        <v>17158.20951</v>
+        <v>60900.21412</v>
       </c>
       <c r="K4" t="n">
-        <v>208.94017</v>
+        <v>193.54648</v>
       </c>
       <c r="L4" t="n">
-        <v>1311.63561</v>
+        <v>3277.7376</v>
       </c>
       <c r="M4" t="n">
-        <v>22.01203</v>
+        <v>21.21272</v>
       </c>
       <c r="N4" t="n">
-        <v>3337.68637</v>
+        <v>10266.64364</v>
       </c>
       <c r="O4" t="n">
-        <v>1847.27626</v>
+        <v>4640.45056</v>
       </c>
       <c r="P4" t="n">
-        <v>67.33924</v>
+        <v>78.75982999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>8137.18772</v>
+        <v>19022.10951</v>
       </c>
       <c r="R4" t="n">
-        <v>179.04597</v>
+        <v>621.04983</v>
       </c>
       <c r="S4" t="n">
-        <v>4597.04814</v>
+        <v>10380.55305</v>
       </c>
       <c r="T4" t="n">
-        <v>11540.50953</v>
+        <v>49177.20657</v>
       </c>
       <c r="U4" t="n">
-        <v>8623.090099999999</v>
+        <v>21341.601</v>
       </c>
       <c r="V4" t="n">
-        <v>29846.67476</v>
+        <v>91417.25996</v>
       </c>
       <c r="W4" t="n">
-        <v>6503.15675</v>
+        <v>23893.91852</v>
       </c>
       <c r="X4" t="n">
-        <v>4551.27753</v>
+        <v>11494.93633</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.39433</v>
+        <v>517.46843</v>
       </c>
       <c r="Z4" t="n">
-        <v>2918.30742</v>
+        <v>7490.87788</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.6482</v>
+        <v>193.83662</v>
       </c>
       <c r="AB4" t="n">
-        <v>3788.10034</v>
+        <v>14823.48799</v>
       </c>
       <c r="AC4" t="n">
-        <v>3048.80514</v>
+        <v>12416.66088</v>
       </c>
       <c r="AD4" t="n">
-        <v>461.91889</v>
+        <v>1153.85631</v>
       </c>
       <c r="AE4" t="n">
-        <v>188.72811</v>
+        <v>1059.13418</v>
       </c>
       <c r="AF4" t="n">
-        <v>117.98112</v>
+        <v>131.80069</v>
       </c>
       <c r="AG4" t="n">
-        <v>265.64051</v>
+        <v>252.5462</v>
       </c>
       <c r="AH4" t="n">
-        <v>2473.13821</v>
+        <v>9893.920760000001</v>
       </c>
       <c r="AI4" t="n">
-        <v>8004.25059</v>
+        <v>18518.01338</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21842.42417</v>
+        <v>72899.24658000001</v>
       </c>
       <c r="AK4" t="n">
-        <v>610.51717</v>
+        <v>659.08448</v>
       </c>
       <c r="AL4" t="n">
-        <v>11.99684</v>
+        <v>16.42941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11545.89</v>
+        <v>23476.47</v>
       </c>
       <c r="C5" t="n">
-        <v>240.01</v>
+        <v>354.58</v>
       </c>
       <c r="D5" t="n">
-        <v>3598.95</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>9144.18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>42.26</v>
+      </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>279.78</v>
       </c>
       <c r="G5" t="n">
-        <v>5948.7</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>25185.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.12</v>
+      </c>
       <c r="I5" t="n">
-        <v>20.99</v>
+        <v>7.44</v>
       </c>
       <c r="J5" t="n">
-        <v>20640.66</v>
+        <v>70924.32000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>225.91</v>
+        <v>174.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1503.55</v>
+        <v>3404.77</v>
       </c>
       <c r="M5" t="n">
-        <v>20.71</v>
+        <v>7.16</v>
       </c>
       <c r="N5" t="n">
-        <v>3646.95</v>
+        <v>6801.87</v>
       </c>
       <c r="O5" t="n">
-        <v>2183.03</v>
+        <v>7375.45</v>
       </c>
       <c r="P5" t="n">
-        <v>59.89</v>
+        <v>25.27</v>
       </c>
       <c r="Q5" t="n">
-        <v>9701.639999999999</v>
+        <v>21009.11</v>
       </c>
       <c r="R5" t="n">
-        <v>268.31</v>
+        <v>652.05</v>
       </c>
       <c r="S5" t="n">
-        <v>5594.37</v>
+        <v>10816.04</v>
       </c>
       <c r="T5" t="n">
-        <v>13677.81</v>
+        <v>56034.69</v>
       </c>
       <c r="U5" t="n">
-        <v>10146.66</v>
+        <v>24594.75</v>
       </c>
       <c r="V5" t="n">
-        <v>35370.36</v>
+        <v>104105.91</v>
       </c>
       <c r="W5" t="n">
-        <v>8131.73</v>
+        <v>32560.71</v>
       </c>
       <c r="X5" t="n">
-        <v>5028.05</v>
+        <v>12172.48</v>
       </c>
       <c r="Y5" t="n">
-        <v>123.43</v>
+        <v>587.02</v>
       </c>
       <c r="Z5" t="n">
-        <v>3175.16</v>
+        <v>7999.02</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.73</v>
+        <v>113.31</v>
       </c>
       <c r="AB5" t="n">
-        <v>4909.03</v>
+        <v>18168.08</v>
       </c>
       <c r="AC5" t="n">
-        <v>3950.74</v>
+        <v>16127.32</v>
       </c>
       <c r="AD5" t="n">
-        <v>604.59</v>
+        <v>556.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>237.97</v>
+        <v>1370.95</v>
       </c>
       <c r="AF5" t="n">
-        <v>114.69</v>
+        <v>45.45</v>
       </c>
       <c r="AG5" t="n">
-        <v>252.22</v>
+        <v>107.13</v>
       </c>
       <c r="AH5" t="n">
-        <v>2915.54</v>
+        <v>12467.02</v>
       </c>
       <c r="AI5" t="n">
-        <v>9260.09</v>
+        <v>21131.2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>26110.27</v>
+        <v>82974.71000000001</v>
       </c>
       <c r="AK5" t="n">
-        <v>628.5</v>
+        <v>494.28</v>
       </c>
       <c r="AL5" t="n">
-        <v>13.09</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14096.73754</v>
+        <v>25839.5</v>
       </c>
       <c r="C6" t="n">
-        <v>303.46327</v>
+        <v>337.53</v>
       </c>
       <c r="D6" t="n">
-        <v>4536.45661</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>9351.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>68.09</v>
+      </c>
       <c r="F6" t="n">
-        <v>93.62611</v>
+        <v>217.77</v>
       </c>
       <c r="G6" t="n">
-        <v>7226.18788</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>29112.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.25</v>
+      </c>
       <c r="I6" t="n">
-        <v>29.49425</v>
+        <v>5.81</v>
       </c>
       <c r="J6" t="n">
-        <v>25056.3153</v>
+        <v>78678.06</v>
       </c>
       <c r="K6" t="n">
-        <v>255.01443</v>
+        <v>190.17</v>
       </c>
       <c r="L6" t="n">
-        <v>1838.65461</v>
+        <v>3626.83</v>
       </c>
       <c r="M6" t="n">
-        <v>26.46756</v>
+        <v>5.62</v>
       </c>
       <c r="N6" t="n">
-        <v>4184.31728</v>
+        <v>6932.79</v>
       </c>
       <c r="O6" t="n">
-        <v>2578.13963</v>
+        <v>7619.78</v>
       </c>
       <c r="P6" t="n">
-        <v>97.83011</v>
+        <v>13.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>12368.29252</v>
+        <v>21374.19</v>
       </c>
       <c r="R6" t="n">
-        <v>380.51572</v>
+        <v>588.77</v>
       </c>
       <c r="S6" t="n">
-        <v>7147.85692</v>
+        <v>11028.3</v>
       </c>
       <c r="T6" t="n">
-        <v>17264.35429</v>
+        <v>59047.11</v>
       </c>
       <c r="U6" t="n">
-        <v>12157.51255</v>
+        <v>27932.81</v>
       </c>
       <c r="V6" t="n">
-        <v>43518.60438</v>
+        <v>112819.42</v>
       </c>
       <c r="W6" t="n">
-        <v>9804.327509999999</v>
+        <v>36732.03</v>
       </c>
       <c r="X6" t="n">
-        <v>6093.99656</v>
+        <v>12767.17</v>
       </c>
       <c r="Y6" t="n">
-        <v>164.07217</v>
+        <v>483.29</v>
       </c>
       <c r="Z6" t="n">
-        <v>3836.25535</v>
+        <v>8462.629999999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.16072</v>
+        <v>100.28</v>
       </c>
       <c r="AB6" t="n">
-        <v>6280.82051</v>
+        <v>20541.78</v>
       </c>
       <c r="AC6" t="n">
-        <v>5125.39724</v>
+        <v>18386.18</v>
       </c>
       <c r="AD6" t="n">
-        <v>699.60898</v>
+        <v>593.86</v>
       </c>
       <c r="AE6" t="n">
-        <v>327.65357</v>
+        <v>1461.46</v>
       </c>
       <c r="AF6" t="n">
-        <v>164.80041</v>
+        <v>28.31</v>
       </c>
       <c r="AG6" t="n">
-        <v>249.62692</v>
+        <v>108.97</v>
       </c>
       <c r="AH6" t="n">
-        <v>3645.56511</v>
+        <v>13515.2</v>
       </c>
       <c r="AI6" t="n">
-        <v>10898.00105</v>
+        <v>22671.85</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32620.60333</v>
+        <v>90147.57000000001</v>
       </c>
       <c r="AK6" t="n">
-        <v>633.23145</v>
+        <v>601.21</v>
       </c>
       <c r="AL6" t="n">
-        <v>11.00849</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15799.87424</v>
+        <v>26407.85</v>
       </c>
       <c r="C7" t="n">
-        <v>264.79684</v>
+        <v>284.87</v>
       </c>
       <c r="D7" t="n">
-        <v>4713.83217</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>9270.91</v>
+      </c>
+      <c r="E7" t="n">
+        <v>85.98999999999999</v>
+      </c>
       <c r="F7" t="n">
-        <v>120.43057</v>
+        <v>236.36</v>
       </c>
       <c r="G7" t="n">
-        <v>9602.187879999999</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>31618.26</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22.52</v>
+      </c>
       <c r="I7" t="n">
-        <v>27.5306</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>32616.31967</v>
+        <v>83653.5</v>
       </c>
       <c r="K7" t="n">
-        <v>157.815</v>
+        <v>161.21</v>
       </c>
       <c r="L7" t="n">
-        <v>1866.75679</v>
+        <v>3754.81</v>
       </c>
       <c r="M7" t="n">
-        <v>16.91007</v>
+        <v>7.96</v>
       </c>
       <c r="N7" t="n">
-        <v>5575.5493</v>
+        <v>7120.7</v>
       </c>
       <c r="O7" t="n">
-        <v>2635.5589</v>
+        <v>7921.49</v>
       </c>
       <c r="P7" t="n">
-        <v>141.20671</v>
+        <v>5.31</v>
       </c>
       <c r="Q7" t="n">
-        <v>12006.43362</v>
+        <v>19794.79</v>
       </c>
       <c r="R7" t="n">
-        <v>419.55478</v>
+        <v>581.71</v>
       </c>
       <c r="S7" t="n">
-        <v>6608.24983</v>
+        <v>9571.32</v>
       </c>
       <c r="T7" t="n">
-        <v>19777.09285</v>
+        <v>59895.06</v>
       </c>
       <c r="U7" t="n">
-        <v>15490.07807</v>
+        <v>30583.09</v>
       </c>
       <c r="V7" t="n">
-        <v>51067.04516</v>
+        <v>116886</v>
       </c>
       <c r="W7" t="n">
-        <v>12237.74678</v>
+        <v>39539.76</v>
       </c>
       <c r="X7" t="n">
-        <v>6444.29187</v>
+        <v>13437.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.76921</v>
+        <v>419.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>4215.95087</v>
+        <v>9079.860000000001</v>
       </c>
       <c r="AA7" t="n">
-        <v>189.85139</v>
+        <v>95.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>8893.558569999999</v>
+        <v>22340.87</v>
       </c>
       <c r="AC7" t="n">
-        <v>7105.71611</v>
+        <v>19981.99</v>
       </c>
       <c r="AD7" t="n">
-        <v>1068.27689</v>
+        <v>564.83</v>
       </c>
       <c r="AE7" t="n">
-        <v>529.7141800000001</v>
+        <v>1698.31</v>
       </c>
       <c r="AF7" t="n">
-        <v>196.95725</v>
+        <v>19.38</v>
       </c>
       <c r="AG7" t="n">
-        <v>263.50447</v>
+        <v>103.96</v>
       </c>
       <c r="AH7" t="n">
-        <v>4740.73087</v>
+        <v>13691.99</v>
       </c>
       <c r="AI7" t="n">
-        <v>12158.90226</v>
+        <v>23816.55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>38908.1429</v>
+        <v>93069.46000000001</v>
       </c>
       <c r="AK7" t="n">
-        <v>587.84186</v>
+        <v>600.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>11.30987</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17864.4282</v>
+        <v>29314.01</v>
       </c>
       <c r="C8" t="n">
-        <v>245.71447</v>
+        <v>265.19</v>
       </c>
       <c r="D8" t="n">
-        <v>6057.7442</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>10267.39</v>
+      </c>
+      <c r="E8" t="n">
+        <v>114.33</v>
+      </c>
       <c r="F8" t="n">
-        <v>161.58721</v>
+        <v>42.41</v>
       </c>
       <c r="G8" t="n">
-        <v>10819.48933</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>35078.79</v>
+      </c>
+      <c r="H8" t="n">
+        <v>131.29</v>
+      </c>
       <c r="I8" t="n">
-        <v>11.75987</v>
+        <v>1.06</v>
       </c>
       <c r="J8" t="n">
-        <v>36944.54889</v>
+        <v>91060.64999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>193.39403</v>
+        <v>146.37</v>
       </c>
       <c r="L8" t="n">
-        <v>1999.98494</v>
+        <v>4376.28</v>
       </c>
       <c r="M8" t="n">
-        <v>13.88251</v>
+        <v>4.89</v>
       </c>
       <c r="N8" t="n">
-        <v>6260.39825</v>
+        <v>6896.81</v>
       </c>
       <c r="O8" t="n">
-        <v>3394.1759</v>
+        <v>8781.790000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>108.11066</v>
+        <v>1.59</v>
       </c>
       <c r="Q8" t="n">
-        <v>14128.8347</v>
+        <v>22219.49</v>
       </c>
       <c r="R8" t="n">
-        <v>394.32756</v>
+        <v>661.59</v>
       </c>
       <c r="S8" t="n">
-        <v>7431.04847</v>
+        <v>10910.99</v>
       </c>
       <c r="T8" t="n">
-        <v>23911.1373</v>
+        <v>66142.60000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>16392.37263</v>
+        <v>32757.61</v>
       </c>
       <c r="V8" t="n">
-        <v>58167.93813</v>
+        <v>128214.21</v>
       </c>
       <c r="W8" t="n">
-        <v>14213.66523</v>
+        <v>43860.58</v>
       </c>
       <c r="X8" t="n">
-        <v>7094.55454</v>
+        <v>14934.08</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.18075</v>
+        <v>450.91</v>
       </c>
       <c r="Z8" t="n">
-        <v>4610.99482</v>
+        <v>9829.219999999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>186.76958</v>
+        <v>86.98</v>
       </c>
       <c r="AB8" t="n">
-        <v>9837.228010000001</v>
+        <v>24356.02</v>
       </c>
       <c r="AC8" t="n">
-        <v>7951.06092</v>
+        <v>21876.81</v>
       </c>
       <c r="AD8" t="n">
-        <v>1082.09783</v>
+        <v>438.58</v>
       </c>
       <c r="AE8" t="n">
-        <v>617.29968</v>
+        <v>1953.65</v>
       </c>
       <c r="AF8" t="n">
-        <v>144.40181</v>
+        <v>9.92</v>
       </c>
       <c r="AG8" t="n">
-        <v>251.32816</v>
+        <v>87.83</v>
       </c>
       <c r="AH8" t="n">
-        <v>5524.94837</v>
+        <v>15200.86</v>
       </c>
       <c r="AI8" t="n">
-        <v>13281.83819</v>
+        <v>25665.4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44886.09994</v>
+        <v>102548.81</v>
       </c>
       <c r="AK8" t="n">
-        <v>550.99185</v>
+        <v>606.23</v>
       </c>
       <c r="AL8" t="n">
-        <v>10.64877</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22215.57713</v>
+        <v>31402.86</v>
       </c>
       <c r="C9" t="n">
-        <v>309.48267</v>
+        <v>255.91</v>
       </c>
       <c r="D9" t="n">
-        <v>7208.84433</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>10351.17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>226.75</v>
+      </c>
       <c r="F9" t="n">
-        <v>186.90239</v>
+        <v>118.66</v>
       </c>
       <c r="G9" t="n">
-        <v>13504.98753</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>38134.46</v>
+      </c>
+      <c r="H9" t="n">
+        <v>166.17</v>
+      </c>
       <c r="I9" t="n">
-        <v>8.490740000000001</v>
+        <v>0.51</v>
       </c>
       <c r="J9" t="n">
-        <v>45043.65506</v>
+        <v>99996.08</v>
       </c>
       <c r="K9" t="n">
-        <v>232.39527</v>
+        <v>138.21</v>
       </c>
       <c r="L9" t="n">
-        <v>2652.94174</v>
+        <v>4903.39</v>
       </c>
       <c r="M9" t="n">
-        <v>22.72535</v>
+        <v>5.42</v>
       </c>
       <c r="N9" t="n">
-        <v>7757.10165</v>
+        <v>6902.44</v>
       </c>
       <c r="O9" t="n">
-        <v>3919.81697</v>
+        <v>9763.700000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>75.89096000000001</v>
+        <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>17479.43147</v>
+        <v>23215.18</v>
       </c>
       <c r="R9" t="n">
-        <v>592.39747</v>
+        <v>884.66</v>
       </c>
       <c r="S9" t="n">
-        <v>9368.707</v>
+        <v>11496.69</v>
       </c>
       <c r="T9" t="n">
-        <v>30807.27142</v>
+        <v>72388.55</v>
       </c>
       <c r="U9" t="n">
-        <v>18353.14629</v>
+        <v>36193.22</v>
       </c>
       <c r="V9" t="n">
-        <v>71375.99484</v>
+        <v>139984.64</v>
       </c>
       <c r="W9" t="n">
-        <v>17424.8045</v>
+        <v>47898.16</v>
       </c>
       <c r="X9" t="n">
-        <v>8852.908310000001</v>
+        <v>16773.38</v>
       </c>
       <c r="Y9" t="n">
-        <v>404.61943</v>
+        <v>503.28</v>
       </c>
       <c r="Z9" t="n">
-        <v>5562.95187</v>
+        <v>11062.33</v>
       </c>
       <c r="AA9" t="n">
-        <v>221.4854</v>
+        <v>84.69</v>
       </c>
       <c r="AB9" t="n">
-        <v>11932.92164</v>
+        <v>27995.83</v>
       </c>
       <c r="AC9" t="n">
-        <v>9513.436830000001</v>
+        <v>25255.48</v>
       </c>
       <c r="AD9" t="n">
-        <v>1329.57877</v>
+        <v>423.94</v>
       </c>
       <c r="AE9" t="n">
-        <v>868.42064</v>
+        <v>2231.72</v>
       </c>
       <c r="AF9" t="n">
-        <v>121.30976</v>
+        <v>10.05</v>
       </c>
       <c r="AG9" t="n">
-        <v>248.16776</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>6730.72882</v>
+        <v>16376</v>
       </c>
       <c r="AI9" t="n">
-        <v>15572.16134</v>
+        <v>27394.25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55803.8335</v>
+        <v>112590.39</v>
       </c>
       <c r="AK9" t="n">
-        <v>641.71854</v>
+        <v>609.54</v>
       </c>
       <c r="AL9" t="n">
-        <v>14.20271</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19031.74577</v>
+        <v>32463.99</v>
       </c>
       <c r="C10" t="n">
-        <v>317.66437</v>
+        <v>337.61</v>
       </c>
       <c r="D10" t="n">
-        <v>7567.15923</v>
+        <v>9914.77</v>
       </c>
       <c r="E10" t="n">
-        <v>15.61081</v>
+        <v>366.39</v>
       </c>
       <c r="F10" t="n">
-        <v>793.43735</v>
+        <v>44.97</v>
       </c>
       <c r="G10" t="n">
-        <v>16247.08957</v>
+        <v>40914.29</v>
       </c>
       <c r="H10" t="n">
-        <v>8.447570000000001</v>
+        <v>152.38</v>
       </c>
       <c r="I10" t="n">
-        <v>20.98719</v>
+        <v>0.19</v>
       </c>
       <c r="J10" t="n">
-        <v>52593.58342</v>
+        <v>109108.03</v>
       </c>
       <c r="K10" t="n">
-        <v>170.27274</v>
+        <v>96.23999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>3147.3182</v>
+        <v>4728.83</v>
       </c>
       <c r="M10" t="n">
-        <v>19.77447</v>
+        <v>0.86</v>
       </c>
       <c r="N10" t="n">
-        <v>8954.697469999999</v>
+        <v>4477.28</v>
       </c>
       <c r="O10" t="n">
-        <v>4240.46787</v>
+        <v>12403.33</v>
       </c>
       <c r="P10" t="n">
-        <v>81.56325</v>
+        <v>0.53</v>
       </c>
       <c r="Q10" t="n">
-        <v>18607.83927</v>
+        <v>23482.72</v>
       </c>
       <c r="R10" t="n">
-        <v>599.34512</v>
+        <v>840.5599999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>10108.05974</v>
+        <v>12023.4</v>
       </c>
       <c r="T10" t="n">
-        <v>44007.96956</v>
+        <v>75924.41</v>
       </c>
       <c r="U10" t="n">
-        <v>18351.97092</v>
+        <v>40535.46</v>
       </c>
       <c r="V10" t="n">
-        <v>81391.68625</v>
+        <v>148923.86</v>
       </c>
       <c r="W10" t="n">
-        <v>20487.55744</v>
+        <v>53317.62</v>
       </c>
       <c r="X10" t="n">
-        <v>10190.26356</v>
+        <v>16333.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>395.45251</v>
+        <v>477.15</v>
       </c>
       <c r="Z10" t="n">
-        <v>6468.77254</v>
+        <v>10878.51</v>
       </c>
       <c r="AA10" t="n">
-        <v>180.16122</v>
+        <v>71.33</v>
       </c>
       <c r="AB10" t="n">
-        <v>12671.56579</v>
+        <v>34172.99</v>
       </c>
       <c r="AC10" t="n">
-        <v>10356.58472</v>
+        <v>30745.67</v>
       </c>
       <c r="AD10" t="n">
-        <v>1160.82779</v>
+        <v>369.34</v>
       </c>
       <c r="AE10" t="n">
-        <v>973.99206</v>
+        <v>2986.66</v>
       </c>
       <c r="AF10" t="n">
-        <v>135.35418</v>
+        <v>2.65</v>
       </c>
       <c r="AG10" t="n">
-        <v>229.4037</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>8736.198990000001</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>16772.75254</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>64618.93371</v>
-      </c>
+        <v>16830.76</v>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="n">
-        <v>585.3685</v>
+        <v>189.72</v>
       </c>
       <c r="AL10" t="n">
-        <v>13.02927</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20898.45239</v>
+        <v>34279.44</v>
       </c>
       <c r="C11" t="n">
-        <v>337.44899</v>
+        <v>326.71</v>
       </c>
       <c r="D11" t="n">
-        <v>7636.85845</v>
+        <v>10233.98</v>
       </c>
       <c r="E11" t="n">
-        <v>46.19919</v>
+        <v>228.78</v>
       </c>
       <c r="F11" t="n">
-        <v>978.81184</v>
+        <v>2.47</v>
       </c>
       <c r="G11" t="n">
-        <v>19253.46796</v>
+        <v>41796.56</v>
       </c>
       <c r="H11" t="n">
-        <v>15.30594</v>
+        <v>123.82</v>
       </c>
       <c r="I11" t="n">
-        <v>15.39873</v>
+        <v>0.89</v>
       </c>
       <c r="J11" t="n">
-        <v>60900.21412</v>
+        <v>115560.09</v>
       </c>
       <c r="K11" t="n">
-        <v>193.54648</v>
+        <v>93.41</v>
       </c>
       <c r="L11" t="n">
-        <v>3277.7376</v>
+        <v>4912.55</v>
       </c>
       <c r="M11" t="n">
-        <v>21.21272</v>
+        <v>0.35</v>
       </c>
       <c r="N11" t="n">
-        <v>10266.64364</v>
+        <v>4008.54</v>
       </c>
       <c r="O11" t="n">
-        <v>4640.45056</v>
+        <v>12510.44</v>
       </c>
       <c r="P11" t="n">
-        <v>78.75982999999999</v>
+        <v>0.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>19022.10951</v>
+        <v>24278.18</v>
       </c>
       <c r="R11" t="n">
-        <v>621.04983</v>
+        <v>713.0599999999999</v>
       </c>
       <c r="S11" t="n">
-        <v>10380.55305</v>
+        <v>12775.65</v>
       </c>
       <c r="T11" t="n">
-        <v>49177.20657</v>
+        <v>76840.17999999999</v>
       </c>
       <c r="U11" t="n">
-        <v>21341.601</v>
+        <v>45906.38</v>
       </c>
       <c r="V11" t="n">
-        <v>91417.25996</v>
+        <v>157025.99</v>
       </c>
       <c r="W11" t="n">
-        <v>23893.91852</v>
+        <v>54307</v>
       </c>
       <c r="X11" t="n">
-        <v>11494.93633</v>
+        <v>17187.72</v>
       </c>
       <c r="Y11" t="n">
-        <v>517.46843</v>
+        <v>533.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>7490.87788</v>
+        <v>11524.15</v>
       </c>
       <c r="AA11" t="n">
-        <v>193.83662</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="AB11" t="n">
-        <v>14823.48799</v>
+        <v>39279.73</v>
       </c>
       <c r="AC11" t="n">
-        <v>12416.66088</v>
+        <v>35173.91</v>
       </c>
       <c r="AD11" t="n">
-        <v>1153.85631</v>
+        <v>368.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>1059.13418</v>
+        <v>3659.16</v>
       </c>
       <c r="AF11" t="n">
-        <v>131.80069</v>
+        <v>3.14</v>
       </c>
       <c r="AG11" t="n">
-        <v>252.5462</v>
+        <v>71.14</v>
       </c>
       <c r="AH11" t="n">
-        <v>9893.920760000001</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>18518.01338</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>72899.24658000001</v>
-      </c>
+        <v>17713.62</v>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="n">
-        <v>659.08448</v>
+        <v>174.46</v>
       </c>
       <c r="AL11" t="n">
-        <v>16.42941</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23476.47</v>
-      </c>
-      <c r="C12" t="n">
-        <v>354.58</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9144.18</v>
-      </c>
-      <c r="E12" t="n">
-        <v>42.26</v>
-      </c>
-      <c r="F12" t="n">
-        <v>279.78</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25185.26</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="J12" t="n">
-        <v>70924.32000000001</v>
-      </c>
-      <c r="K12" t="n">
-        <v>174.55</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3404.77</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6801.87</v>
-      </c>
-      <c r="O12" t="n">
-        <v>7375.45</v>
-      </c>
-      <c r="P12" t="n">
-        <v>25.27</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>21009.11</v>
-      </c>
-      <c r="R12" t="n">
-        <v>652.05</v>
-      </c>
-      <c r="S12" t="n">
-        <v>10816.04</v>
-      </c>
-      <c r="T12" t="n">
-        <v>56034.69</v>
-      </c>
-      <c r="U12" t="n">
-        <v>24594.75</v>
-      </c>
-      <c r="V12" t="n">
-        <v>104105.91</v>
-      </c>
-      <c r="W12" t="n">
-        <v>32560.71</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12172.48</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>587.02</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>7999.02</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>113.31</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>18168.08</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>16127.32</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>556.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1370.95</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>107.13</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>12467.02</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>21131.2</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>82974.71000000001</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>494.28</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>5.59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25839.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>337.53</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9351.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>68.09</v>
-      </c>
-      <c r="F13" t="n">
-        <v>217.77</v>
-      </c>
-      <c r="G13" t="n">
-        <v>29112.25</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J13" t="n">
-        <v>78678.06</v>
-      </c>
-      <c r="K13" t="n">
-        <v>190.17</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3626.83</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6932.79</v>
-      </c>
-      <c r="O13" t="n">
-        <v>7619.78</v>
-      </c>
-      <c r="P13" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>21374.19</v>
-      </c>
-      <c r="R13" t="n">
-        <v>588.77</v>
-      </c>
-      <c r="S13" t="n">
-        <v>11028.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>59047.11</v>
-      </c>
-      <c r="U13" t="n">
-        <v>27932.81</v>
-      </c>
-      <c r="V13" t="n">
-        <v>112819.42</v>
-      </c>
-      <c r="W13" t="n">
-        <v>36732.03</v>
-      </c>
-      <c r="X13" t="n">
-        <v>12767.17</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>483.29</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>8462.629999999999</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>100.28</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>20541.78</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>18386.18</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>593.86</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1461.46</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>108.97</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>13515.2</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>22671.85</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>90147.57000000001</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>601.21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>26407.85</v>
-      </c>
-      <c r="C14" t="n">
-        <v>284.87</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9270.91</v>
-      </c>
-      <c r="E14" t="n">
-        <v>85.98999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>236.36</v>
-      </c>
-      <c r="G14" t="n">
-        <v>31618.26</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>83653.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>161.21</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3754.81</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7120.7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>7921.49</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>19794.79</v>
-      </c>
-      <c r="R14" t="n">
-        <v>581.71</v>
-      </c>
-      <c r="S14" t="n">
-        <v>9571.32</v>
-      </c>
-      <c r="T14" t="n">
-        <v>59895.06</v>
-      </c>
-      <c r="U14" t="n">
-        <v>30583.09</v>
-      </c>
-      <c r="V14" t="n">
-        <v>116886</v>
-      </c>
-      <c r="W14" t="n">
-        <v>39539.76</v>
-      </c>
-      <c r="X14" t="n">
-        <v>13437.7</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>419.3</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>9079.860000000001</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>95.75</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>22340.87</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>19981.99</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>564.83</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1698.31</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>103.96</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13691.99</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>23816.55</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>93069.46000000001</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>600.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>29314.01</v>
-      </c>
-      <c r="C15" t="n">
-        <v>265.19</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10267.39</v>
-      </c>
-      <c r="E15" t="n">
-        <v>114.33</v>
-      </c>
-      <c r="F15" t="n">
-        <v>42.41</v>
-      </c>
-      <c r="G15" t="n">
-        <v>35078.79</v>
-      </c>
-      <c r="H15" t="n">
-        <v>131.29</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J15" t="n">
-        <v>91060.64999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>146.37</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4376.28</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6896.81</v>
-      </c>
-      <c r="O15" t="n">
-        <v>8781.790000000001</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>22219.49</v>
-      </c>
-      <c r="R15" t="n">
-        <v>661.59</v>
-      </c>
-      <c r="S15" t="n">
-        <v>10910.99</v>
-      </c>
-      <c r="T15" t="n">
-        <v>66142.60000000001</v>
-      </c>
-      <c r="U15" t="n">
-        <v>32757.61</v>
-      </c>
-      <c r="V15" t="n">
-        <v>128214.21</v>
-      </c>
-      <c r="W15" t="n">
-        <v>43860.58</v>
-      </c>
-      <c r="X15" t="n">
-        <v>14934.08</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>450.91</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>9829.219999999999</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>86.98</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>24356.02</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>21876.81</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>438.58</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1953.65</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>87.83</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15200.86</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>25665.4</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>102548.81</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>606.23</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>31402.86</v>
-      </c>
-      <c r="C16" t="n">
-        <v>255.91</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10351.17</v>
-      </c>
-      <c r="E16" t="n">
-        <v>226.75</v>
-      </c>
-      <c r="F16" t="n">
-        <v>118.66</v>
-      </c>
-      <c r="G16" t="n">
-        <v>38134.46</v>
-      </c>
-      <c r="H16" t="n">
-        <v>166.17</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J16" t="n">
-        <v>99996.08</v>
-      </c>
-      <c r="K16" t="n">
-        <v>138.21</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4903.39</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6902.44</v>
-      </c>
-      <c r="O16" t="n">
-        <v>9763.700000000001</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>23215.18</v>
-      </c>
-      <c r="R16" t="n">
-        <v>884.66</v>
-      </c>
-      <c r="S16" t="n">
-        <v>11496.69</v>
-      </c>
-      <c r="T16" t="n">
-        <v>72388.55</v>
-      </c>
-      <c r="U16" t="n">
-        <v>36193.22</v>
-      </c>
-      <c r="V16" t="n">
-        <v>139984.64</v>
-      </c>
-      <c r="W16" t="n">
-        <v>47898.16</v>
-      </c>
-      <c r="X16" t="n">
-        <v>16773.38</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>503.28</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>11062.33</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>84.69</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>27995.83</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>25255.48</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>423.94</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>2231.72</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>16376</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>27394.25</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>112590.39</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>609.54</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>32463.99</v>
-      </c>
-      <c r="C17" t="n">
-        <v>337.61</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9914.77</v>
-      </c>
-      <c r="E17" t="n">
-        <v>366.39</v>
-      </c>
-      <c r="F17" t="n">
-        <v>44.97</v>
-      </c>
-      <c r="G17" t="n">
-        <v>40914.29</v>
-      </c>
-      <c r="H17" t="n">
-        <v>152.38</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J17" t="n">
-        <v>109108.03</v>
-      </c>
-      <c r="K17" t="n">
-        <v>96.23999999999999</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4728.83</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4477.28</v>
-      </c>
-      <c r="O17" t="n">
-        <v>12403.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>23482.72</v>
-      </c>
-      <c r="R17" t="n">
-        <v>840.5599999999999</v>
-      </c>
-      <c r="S17" t="n">
-        <v>12023.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>75924.41</v>
-      </c>
-      <c r="U17" t="n">
-        <v>40535.46</v>
-      </c>
-      <c r="V17" t="n">
-        <v>148923.86</v>
-      </c>
-      <c r="W17" t="n">
-        <v>53317.62</v>
-      </c>
-      <c r="X17" t="n">
-        <v>16333.1</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>477.15</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10878.51</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>71.33</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34172.99</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>30745.67</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>369.34</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2986.66</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16830.76</v>
-      </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="n">
-        <v>189.72</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>34279.44</v>
-      </c>
-      <c r="C18" t="n">
-        <v>326.71</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10233.98</v>
-      </c>
-      <c r="E18" t="n">
-        <v>228.78</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="G18" t="n">
-        <v>41796.56</v>
-      </c>
-      <c r="H18" t="n">
-        <v>123.82</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="J18" t="n">
-        <v>115560.09</v>
-      </c>
-      <c r="K18" t="n">
-        <v>93.41</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4912.55</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4008.54</v>
-      </c>
-      <c r="O18" t="n">
-        <v>12510.44</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>24278.18</v>
-      </c>
-      <c r="R18" t="n">
-        <v>713.0599999999999</v>
-      </c>
-      <c r="S18" t="n">
-        <v>12775.65</v>
-      </c>
-      <c r="T18" t="n">
-        <v>76840.17999999999</v>
-      </c>
-      <c r="U18" t="n">
-        <v>45906.38</v>
-      </c>
-      <c r="V18" t="n">
-        <v>157025.99</v>
-      </c>
-      <c r="W18" t="n">
-        <v>54307</v>
-      </c>
-      <c r="X18" t="n">
-        <v>17187.72</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>533.8</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>11524.15</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>77.76000000000001</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>39279.73</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>35173.91</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>368.9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>3659.16</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>71.14</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17713.62</v>
-      </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="n">
-        <v>174.46</v>
-      </c>
-      <c r="AL18" t="n">
         <v>1.46</v>
       </c>
     </row>
